--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema7a-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema7a-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -91,13 +91,13 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Sema7a</t>
+  </si>
+  <si>
+    <t>Itgb1</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sema7a</t>
-  </si>
-  <si>
-    <t>Itgb1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.30196633333333</v>
+        <v>59.13309466666666</v>
       </c>
       <c r="H2">
-        <v>90.90589899999999</v>
+        <v>177.399284</v>
       </c>
       <c r="I2">
-        <v>0.7759129089924486</v>
+        <v>0.8137859791302779</v>
       </c>
       <c r="J2">
-        <v>0.7759129089924485</v>
+        <v>0.8137859791302779</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>2872.621893407016</v>
+        <v>10457.98921289455</v>
       </c>
       <c r="R2">
-        <v>25853.59704066314</v>
+        <v>94121.90291605092</v>
       </c>
       <c r="S2">
-        <v>0.1305057247804158</v>
+        <v>0.2172573133475682</v>
       </c>
       <c r="T2">
-        <v>0.1305057247804158</v>
+        <v>0.2172573133475682</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.30196633333333</v>
+        <v>59.13309466666666</v>
       </c>
       <c r="H3">
-        <v>90.90589899999999</v>
+        <v>177.399284</v>
       </c>
       <c r="I3">
-        <v>0.7759129089924486</v>
+        <v>0.8137859791302779</v>
       </c>
       <c r="J3">
-        <v>0.7759129089924485</v>
+        <v>0.8137859791302779</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>4413.219668266122</v>
+        <v>8612.224485950332</v>
       </c>
       <c r="R3">
-        <v>39718.97701439511</v>
+        <v>77510.02037355298</v>
       </c>
       <c r="S3">
-        <v>0.2004964289745638</v>
+        <v>0.1789128594105558</v>
       </c>
       <c r="T3">
-        <v>0.2004964289745638</v>
+        <v>0.1789128594105558</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.30196633333333</v>
+        <v>59.13309466666666</v>
       </c>
       <c r="H4">
-        <v>90.90589899999999</v>
+        <v>177.399284</v>
       </c>
       <c r="I4">
-        <v>0.7759129089924486</v>
+        <v>0.8137859791302779</v>
       </c>
       <c r="J4">
-        <v>0.7759129089924485</v>
+        <v>0.8137859791302779</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>2205.255013016987</v>
+        <v>4968.664981117396</v>
       </c>
       <c r="R4">
-        <v>19847.29511715289</v>
+        <v>44717.98483005656</v>
       </c>
       <c r="S4">
-        <v>0.1001866637791616</v>
+        <v>0.1032204932273911</v>
       </c>
       <c r="T4">
-        <v>0.1001866637791616</v>
+        <v>0.1032204932273911</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.30196633333333</v>
+        <v>59.13309466666666</v>
       </c>
       <c r="H5">
-        <v>90.90589899999999</v>
+        <v>177.399284</v>
       </c>
       <c r="I5">
-        <v>0.7759129089924486</v>
+        <v>0.8137859791302779</v>
       </c>
       <c r="J5">
-        <v>0.7759129089924485</v>
+        <v>0.8137859791302779</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>3510.05528947498</v>
+        <v>5022.101331421097</v>
       </c>
       <c r="R5">
-        <v>31590.49760527482</v>
+        <v>45198.91198278987</v>
       </c>
       <c r="S5">
-        <v>0.1594648814115126</v>
+        <v>0.1043305955296356</v>
       </c>
       <c r="T5">
-        <v>0.1594648814115126</v>
+        <v>0.1043305955296356</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.30196633333333</v>
+        <v>59.13309466666666</v>
       </c>
       <c r="H6">
-        <v>90.90589899999999</v>
+        <v>177.399284</v>
       </c>
       <c r="I6">
-        <v>0.7759129089924486</v>
+        <v>0.8137859791302779</v>
       </c>
       <c r="J6">
-        <v>0.7759129089924485</v>
+        <v>0.8137859791302779</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>1763.177060613504</v>
+        <v>3782.804598404574</v>
       </c>
       <c r="R6">
-        <v>15868.59354552154</v>
+        <v>34045.24138564117</v>
       </c>
       <c r="S6">
-        <v>0.0801026757958241</v>
+        <v>0.07858508430615756</v>
       </c>
       <c r="T6">
-        <v>0.0801026757958241</v>
+        <v>0.07858508430615756</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,14 +838,14 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.30196633333333</v>
+        <v>59.13309466666666</v>
       </c>
       <c r="H7">
-        <v>90.90589899999999</v>
+        <v>177.399284</v>
       </c>
       <c r="I7">
-        <v>0.7759129089924486</v>
+        <v>0.8137859791302779</v>
       </c>
       <c r="J7">
-        <v>0.7759129089924485</v>
+        <v>0.8137859791302779</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>2314.649131541188</v>
+        <v>6328.958807756179</v>
       </c>
       <c r="R7">
-        <v>20831.84218387069</v>
+        <v>56960.62926980561</v>
       </c>
       <c r="S7">
-        <v>0.1051565342509706</v>
+        <v>0.1314796333089697</v>
       </c>
       <c r="T7">
-        <v>0.1051565342509706</v>
+        <v>0.1314796333089697</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>10.533634</v>
       </c>
       <c r="I8">
-        <v>0.08990816535681323</v>
+        <v>0.04832107247112669</v>
       </c>
       <c r="J8">
-        <v>0.08990816535681322</v>
+        <v>0.04832107247112669</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>332.8623112295113</v>
+        <v>620.9756221145698</v>
       </c>
       <c r="R8">
-        <v>2995.760801065601</v>
+        <v>5588.780599031127</v>
       </c>
       <c r="S8">
-        <v>0.01512222589363129</v>
+        <v>0.01290032840621047</v>
       </c>
       <c r="T8">
-        <v>0.01512222589363129</v>
+        <v>0.01290032840621047</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>10.533634</v>
       </c>
       <c r="I9">
-        <v>0.08990816535681323</v>
+        <v>0.04832107247112669</v>
       </c>
       <c r="J9">
-        <v>0.08990816535681322</v>
+        <v>0.04832107247112669</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
         <v>511.3776031973102</v>
@@ -1013,10 +1013,10 @@
         <v>4602.398428775791</v>
       </c>
       <c r="S9">
-        <v>0.02323233172277467</v>
+        <v>0.01062350724552107</v>
       </c>
       <c r="T9">
-        <v>0.02323233172277467</v>
+        <v>0.01062350724552107</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>10.533634</v>
       </c>
       <c r="I10">
-        <v>0.08990816535681323</v>
+        <v>0.04832107247112669</v>
       </c>
       <c r="J10">
-        <v>0.08990816535681322</v>
+        <v>0.04832107247112669</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>255.5318129991342</v>
+        <v>295.0299302206178</v>
       </c>
       <c r="R10">
-        <v>2299.786316992208</v>
+        <v>2655.26937198556</v>
       </c>
       <c r="S10">
-        <v>0.01160903373202156</v>
+        <v>0.006129037685162341</v>
       </c>
       <c r="T10">
-        <v>0.01160903373202156</v>
+        <v>0.006129037685162341</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>10.533634</v>
       </c>
       <c r="I11">
-        <v>0.08990816535681323</v>
+        <v>0.04832107247112669</v>
       </c>
       <c r="J11">
-        <v>0.08990816535681322</v>
+        <v>0.04832107247112669</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>406.7242956267722</v>
+        <v>298.2028796469243</v>
       </c>
       <c r="R11">
-        <v>3660.51866064095</v>
+        <v>2683.825916822318</v>
       </c>
       <c r="S11">
-        <v>0.01847784043852069</v>
+        <v>0.006194953460529284</v>
       </c>
       <c r="T11">
-        <v>0.01847784043852069</v>
+        <v>0.006194953460529284</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -1169,10 +1169,10 @@
         <v>10.533634</v>
       </c>
       <c r="I12">
-        <v>0.08990816535681323</v>
+        <v>0.04832107247112669</v>
       </c>
       <c r="J12">
-        <v>0.08990816535681322</v>
+        <v>0.04832107247112669</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>204.3064535745746</v>
+        <v>224.6157833033349</v>
       </c>
       <c r="R12">
-        <v>1838.758082171172</v>
+        <v>2021.542049730014</v>
       </c>
       <c r="S12">
-        <v>0.009281820855804637</v>
+        <v>0.004666233692015395</v>
       </c>
       <c r="T12">
-        <v>0.009281820855804637</v>
+        <v>0.004666233692015395</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>10.533634</v>
       </c>
       <c r="I13">
-        <v>0.08990816535681323</v>
+        <v>0.04832107247112669</v>
       </c>
       <c r="J13">
-        <v>0.08990816535681322</v>
+        <v>0.04832107247112669</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>268.2077517331711</v>
+        <v>375.8016051630735</v>
       </c>
       <c r="R13">
-        <v>2413.86976559854</v>
+        <v>3382.214446467662</v>
       </c>
       <c r="S13">
-        <v>0.01218491271406037</v>
+        <v>0.007807011981688134</v>
       </c>
       <c r="T13">
-        <v>0.01218491271406037</v>
+        <v>0.007807011981688134</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.08629433333333332</v>
+        <v>0.131639</v>
       </c>
       <c r="H14">
-        <v>0.258883</v>
+        <v>0.394917</v>
       </c>
       <c r="I14">
-        <v>0.002209654860997437</v>
+        <v>0.001811607748767419</v>
       </c>
       <c r="J14">
-        <v>0.002209654860997437</v>
+        <v>0.001811607748767419</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>8.180689942144332</v>
+        <v>23.28102815786266</v>
       </c>
       <c r="R14">
-        <v>73.62620947929898</v>
+        <v>209.529253420764</v>
       </c>
       <c r="S14">
-        <v>0.0003716558982418554</v>
+        <v>0.0004836468585480965</v>
       </c>
       <c r="T14">
-        <v>0.0003716558982418555</v>
+        <v>0.0004836468585480965</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.08629433333333332</v>
+        <v>0.131639</v>
       </c>
       <c r="H15">
-        <v>0.258883</v>
+        <v>0.394917</v>
       </c>
       <c r="I15">
-        <v>0.002209654860997437</v>
+        <v>0.001811607748767419</v>
       </c>
       <c r="J15">
-        <v>0.002209654860997437</v>
+        <v>0.001811607748767419</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
-        <v>12.56802429707822</v>
+        <v>19.17208334007733</v>
       </c>
       <c r="R15">
-        <v>113.112218673704</v>
+        <v>172.548750060696</v>
       </c>
       <c r="S15">
-        <v>0.0005709763347945329</v>
+        <v>0.000398286442350232</v>
       </c>
       <c r="T15">
-        <v>0.000570976334794533</v>
+        <v>0.000398286442350232</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.08629433333333332</v>
+        <v>0.131639</v>
       </c>
       <c r="H16">
-        <v>0.258883</v>
+        <v>0.394917</v>
       </c>
       <c r="I16">
-        <v>0.002209654860997437</v>
+        <v>0.001811607748767419</v>
       </c>
       <c r="J16">
-        <v>0.002209654860997437</v>
+        <v>0.001811607748767419</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>6.280153871366221</v>
+        <v>11.06098189408667</v>
       </c>
       <c r="R16">
-        <v>56.52138484229599</v>
+        <v>99.54883704677999</v>
       </c>
       <c r="S16">
-        <v>0.0002853128824911648</v>
+        <v>0.0002297840589022987</v>
       </c>
       <c r="T16">
-        <v>0.0002853128824911648</v>
+        <v>0.0002297840589022987</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.08629433333333332</v>
+        <v>0.131639</v>
       </c>
       <c r="H17">
-        <v>0.258883</v>
+        <v>0.394917</v>
       </c>
       <c r="I17">
-        <v>0.002209654860997437</v>
+        <v>0.001811607748767419</v>
       </c>
       <c r="J17">
-        <v>0.002209654860997437</v>
+        <v>0.001811607748767419</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>9.995981047447222</v>
+        <v>11.17993909998433</v>
       </c>
       <c r="R17">
-        <v>89.96382942702499</v>
+        <v>100.619451899859</v>
       </c>
       <c r="S17">
-        <v>0.0004541261606626498</v>
+        <v>0.0002322553105387792</v>
       </c>
       <c r="T17">
-        <v>0.0004541261606626499</v>
+        <v>0.0002322553105387792</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.08629433333333332</v>
+        <v>0.131639</v>
       </c>
       <c r="H18">
-        <v>0.258883</v>
+        <v>0.394917</v>
       </c>
       <c r="I18">
-        <v>0.002209654860997437</v>
+        <v>0.001811607748767419</v>
       </c>
       <c r="J18">
-        <v>0.002209654860997437</v>
+        <v>0.001811607748767419</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>5.021198536112665</v>
+        <v>8.421081584456331</v>
       </c>
       <c r="R18">
-        <v>45.19078682501399</v>
+        <v>75.789734260107</v>
       </c>
       <c r="S18">
-        <v>0.0002281174406300116</v>
+        <v>0.0001749420011127825</v>
       </c>
       <c r="T18">
-        <v>0.0002281174406300116</v>
+        <v>0.0001749420011127825</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.08629433333333332</v>
+        <v>0.131639</v>
       </c>
       <c r="H19">
-        <v>0.258883</v>
+        <v>0.394917</v>
       </c>
       <c r="I19">
-        <v>0.002209654860997437</v>
+        <v>0.001811607748767419</v>
       </c>
       <c r="J19">
-        <v>0.002209654860997437</v>
+        <v>0.001811607748767419</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>6.591687863081111</v>
+        <v>14.08919680579233</v>
       </c>
       <c r="R19">
-        <v>59.32519076773</v>
+        <v>126.802771252131</v>
       </c>
       <c r="S19">
-        <v>0.0002994661441772223</v>
+        <v>0.0002926930773152297</v>
       </c>
       <c r="T19">
-        <v>0.0002994661441772224</v>
+        <v>0.0002926930773152297</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.501438333333333</v>
+        <v>7.288483666666667</v>
       </c>
       <c r="H20">
-        <v>7.504315</v>
+        <v>21.865451</v>
       </c>
       <c r="I20">
-        <v>0.06405189262410427</v>
+        <v>0.1003036599130813</v>
       </c>
       <c r="J20">
-        <v>0.06405189262410427</v>
+        <v>0.1003036599130813</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N20">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q20">
-        <v>237.1359812856883</v>
+        <v>1289.005488280744</v>
       </c>
       <c r="R20">
-        <v>2134.223831571195</v>
+        <v>11601.04939452669</v>
       </c>
       <c r="S20">
-        <v>0.0107732950097721</v>
+        <v>0.02677817538087076</v>
       </c>
       <c r="T20">
-        <v>0.0107732950097721</v>
+        <v>0.02677817538087076</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.501438333333333</v>
+        <v>7.288483666666667</v>
       </c>
       <c r="H21">
-        <v>7.504315</v>
+        <v>21.865451</v>
       </c>
       <c r="I21">
-        <v>0.06405189262410427</v>
+        <v>0.1003036599130813</v>
       </c>
       <c r="J21">
-        <v>0.06405189262410427</v>
+        <v>0.1003036599130813</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q21">
-        <v>364.3128874933022</v>
+        <v>1061.504692987076</v>
       </c>
       <c r="R21">
-        <v>3278.81598743972</v>
+        <v>9553.542236883688</v>
       </c>
       <c r="S21">
-        <v>0.01655105307742739</v>
+        <v>0.02205200760963272</v>
       </c>
       <c r="T21">
-        <v>0.0165510530774274</v>
+        <v>0.02205200760963272</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.501438333333333</v>
+        <v>7.288483666666667</v>
       </c>
       <c r="H22">
-        <v>7.504315</v>
+        <v>21.865451</v>
       </c>
       <c r="I22">
-        <v>0.06405189262410427</v>
+        <v>0.1003036599130813</v>
       </c>
       <c r="J22">
-        <v>0.06405189262410427</v>
+        <v>0.1003036599130813</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N22">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q22">
-        <v>182.0446027711422</v>
+        <v>612.4156661198156</v>
       </c>
       <c r="R22">
-        <v>1638.40142494028</v>
+        <v>5511.74099507834</v>
       </c>
       <c r="S22">
-        <v>0.008270445505389251</v>
+        <v>0.01272250138765697</v>
       </c>
       <c r="T22">
-        <v>0.008270445505389251</v>
+        <v>0.01272250138765697</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.501438333333333</v>
+        <v>7.288483666666667</v>
       </c>
       <c r="H23">
-        <v>7.504315</v>
+        <v>21.865451</v>
       </c>
       <c r="I23">
-        <v>0.06405189262410427</v>
+        <v>0.1003036599130813</v>
       </c>
       <c r="J23">
-        <v>0.06405189262410427</v>
+        <v>0.1003036599130813</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N23">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q23">
-        <v>289.7563397908472</v>
+        <v>619.0019942764976</v>
       </c>
       <c r="R23">
-        <v>2607.807058117625</v>
+        <v>5571.017948488477</v>
       </c>
       <c r="S23">
-        <v>0.0131638839141741</v>
+        <v>0.01285932768676826</v>
       </c>
       <c r="T23">
-        <v>0.0131638839141741</v>
+        <v>0.01285932768676826</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,10 +1892,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.501438333333333</v>
+        <v>7.288483666666667</v>
       </c>
       <c r="H24">
-        <v>7.504315</v>
+        <v>21.865451</v>
       </c>
       <c r="I24">
-        <v>0.06405189262410427</v>
+        <v>0.1003036599130813</v>
       </c>
       <c r="J24">
-        <v>0.06405189262410427</v>
+        <v>0.1003036599130813</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N24">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q24">
-        <v>145.5509071376966</v>
+        <v>466.2517611344468</v>
       </c>
       <c r="R24">
-        <v>1309.95816423927</v>
+        <v>4196.265850210021</v>
       </c>
       <c r="S24">
-        <v>0.006612504998325134</v>
+        <v>0.00968604986154937</v>
       </c>
       <c r="T24">
-        <v>0.006612504998325135</v>
+        <v>0.00968604986154937</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,14 +1954,14 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>27</v>
       </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
       <c r="E25">
         <v>3</v>
       </c>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.501438333333333</v>
+        <v>7.288483666666667</v>
       </c>
       <c r="H25">
-        <v>7.504315</v>
+        <v>21.865451</v>
       </c>
       <c r="I25">
-        <v>0.06405189262410427</v>
+        <v>0.1003036599130813</v>
       </c>
       <c r="J25">
-        <v>0.06405189262410427</v>
+        <v>0.1003036599130813</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N25">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q25">
-        <v>191.0751270119611</v>
+        <v>780.0794657773881</v>
       </c>
       <c r="R25">
-        <v>1719.67614310765</v>
+        <v>7020.715191996494</v>
       </c>
       <c r="S25">
-        <v>0.008680710119016282</v>
+        <v>0.01620559798660318</v>
       </c>
       <c r="T25">
-        <v>0.008680710119016284</v>
+        <v>0.01620559798660318</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.413576</v>
+        <v>2.599756</v>
       </c>
       <c r="H26">
-        <v>7.240728000000001</v>
+        <v>7.799268</v>
       </c>
       <c r="I26">
-        <v>0.0618020875158286</v>
+        <v>0.03577768073674663</v>
       </c>
       <c r="J26">
-        <v>0.06180208751582859</v>
+        <v>0.03577768073674663</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N26">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q26">
-        <v>228.806645177176</v>
+        <v>459.7801004229173</v>
       </c>
       <c r="R26">
-        <v>2059.259806594584</v>
+        <v>4138.020903806256</v>
       </c>
       <c r="S26">
-        <v>0.01039488598619822</v>
+        <v>0.009551605697335631</v>
       </c>
       <c r="T26">
-        <v>0.01039488598619822</v>
+        <v>0.009551605697335631</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.413576</v>
+        <v>2.599756</v>
       </c>
       <c r="H27">
-        <v>7.240728000000001</v>
+        <v>7.799268</v>
       </c>
       <c r="I27">
-        <v>0.0618020875158286</v>
+        <v>0.03577768073674663</v>
       </c>
       <c r="J27">
-        <v>0.06180208751582859</v>
+        <v>0.03577768073674663</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q27">
-        <v>351.5164975395627</v>
+        <v>378.6320064408426</v>
       </c>
       <c r="R27">
-        <v>3163.648477856064</v>
+        <v>3407.688057967584</v>
       </c>
       <c r="S27">
-        <v>0.01596970189114059</v>
+        <v>0.007865811562064964</v>
       </c>
       <c r="T27">
-        <v>0.01596970189114059</v>
+        <v>0.007865811562064964</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,10 +2140,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.413576</v>
+        <v>2.599756</v>
       </c>
       <c r="H28">
-        <v>7.240728000000001</v>
+        <v>7.799268</v>
       </c>
       <c r="I28">
-        <v>0.0618020875158286</v>
+        <v>0.03577768073674663</v>
       </c>
       <c r="J28">
-        <v>0.06180208751582859</v>
+        <v>0.03577768073674663</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N28">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q28">
-        <v>175.6503361777707</v>
+        <v>218.4447925390133</v>
       </c>
       <c r="R28">
-        <v>1580.853025599936</v>
+        <v>1966.00313285112</v>
       </c>
       <c r="S28">
-        <v>0.007979948382143621</v>
+        <v>0.004538035732842125</v>
       </c>
       <c r="T28">
-        <v>0.007979948382143621</v>
+        <v>0.004538035732842125</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,10 +2202,10 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.413576</v>
+        <v>2.599756</v>
       </c>
       <c r="H29">
-        <v>7.240728000000001</v>
+        <v>7.799268</v>
       </c>
       <c r="I29">
-        <v>0.0618020875158286</v>
+        <v>0.03577768073674663</v>
       </c>
       <c r="J29">
-        <v>0.06180208751582859</v>
+        <v>0.03577768073674663</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N29">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q29">
-        <v>279.5787280652667</v>
+        <v>220.7940941120707</v>
       </c>
       <c r="R29">
-        <v>2516.2085525874</v>
+        <v>1987.146847008636</v>
       </c>
       <c r="S29">
-        <v>0.01270150611296434</v>
+        <v>0.00458684080785371</v>
       </c>
       <c r="T29">
-        <v>0.01270150611296434</v>
+        <v>0.00458684080785371</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,10 +2264,10 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.413576</v>
+        <v>2.599756</v>
       </c>
       <c r="H30">
-        <v>7.240728000000001</v>
+        <v>7.799268</v>
       </c>
       <c r="I30">
-        <v>0.0618020875158286</v>
+        <v>0.03577768073674663</v>
       </c>
       <c r="J30">
-        <v>0.06180208751582859</v>
+        <v>0.03577768073674663</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N30">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q30">
-        <v>140.438471564336</v>
+        <v>166.3090526035587</v>
       </c>
       <c r="R30">
-        <v>1263.946244079024</v>
+        <v>1496.781473432028</v>
       </c>
       <c r="S30">
-        <v>0.006380242579304409</v>
+        <v>0.003454952689134398</v>
       </c>
       <c r="T30">
-        <v>0.006380242579304409</v>
+        <v>0.003454952689134398</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,14 +2326,14 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
         <v>27</v>
       </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
       <c r="E31">
         <v>3</v>
       </c>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.413576</v>
+        <v>2.599756</v>
       </c>
       <c r="H31">
-        <v>7.240728000000001</v>
+        <v>7.799268</v>
       </c>
       <c r="I31">
-        <v>0.0618020875158286</v>
+        <v>0.03577768073674663</v>
       </c>
       <c r="J31">
-        <v>0.06180208751582859</v>
+        <v>0.03577768073674663</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N31">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q31">
-        <v>184.3636657388534</v>
+        <v>278.2494088457026</v>
       </c>
       <c r="R31">
-        <v>1659.27299164968</v>
+        <v>2504.244679611324</v>
       </c>
       <c r="S31">
-        <v>0.008375802564077406</v>
+        <v>0.0057804342475158</v>
       </c>
       <c r="T31">
-        <v>0.008375802564077408</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.2388223333333333</v>
-      </c>
-      <c r="H32">
-        <v>0.716467</v>
-      </c>
-      <c r="I32">
-        <v>0.006115290649808025</v>
-      </c>
-      <c r="J32">
-        <v>0.006115290649808025</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>94.79985099999999</v>
-      </c>
-      <c r="N32">
-        <v>284.399553</v>
-      </c>
-      <c r="O32">
-        <v>0.1681963571786456</v>
-      </c>
-      <c r="P32">
-        <v>0.1681963571786456</v>
-      </c>
-      <c r="Q32">
-        <v>22.64032161547233</v>
-      </c>
-      <c r="R32">
-        <v>203.762894539251</v>
-      </c>
-      <c r="S32">
-        <v>0.001028569610386342</v>
-      </c>
-      <c r="T32">
-        <v>0.001028569610386343</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.2388223333333333</v>
-      </c>
-      <c r="H33">
-        <v>0.716467</v>
-      </c>
-      <c r="I33">
-        <v>0.006115290649808025</v>
-      </c>
-      <c r="J33">
-        <v>0.006115290649808025</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>145.6413626666667</v>
-      </c>
-      <c r="N33">
-        <v>436.924088</v>
-      </c>
-      <c r="O33">
-        <v>0.2584006873076977</v>
-      </c>
-      <c r="P33">
-        <v>0.2584006873076977</v>
-      </c>
-      <c r="Q33">
-        <v>34.78241006189955</v>
-      </c>
-      <c r="R33">
-        <v>313.041690557096</v>
-      </c>
-      <c r="S33">
-        <v>0.001580195306996731</v>
-      </c>
-      <c r="T33">
-        <v>0.001580195306996731</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.2388223333333333</v>
-      </c>
-      <c r="H34">
-        <v>0.716467</v>
-      </c>
-      <c r="I34">
-        <v>0.006115290649808025</v>
-      </c>
-      <c r="J34">
-        <v>0.006115290649808025</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>72.77597066666667</v>
-      </c>
-      <c r="N34">
-        <v>218.327912</v>
-      </c>
-      <c r="O34">
-        <v>0.1291210168281098</v>
-      </c>
-      <c r="P34">
-        <v>0.1291210168281098</v>
-      </c>
-      <c r="Q34">
-        <v>17.38052712521155</v>
-      </c>
-      <c r="R34">
-        <v>156.424744126904</v>
-      </c>
-      <c r="S34">
-        <v>0.0007896125469026447</v>
-      </c>
-      <c r="T34">
-        <v>0.0007896125469026447</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.2388223333333333</v>
-      </c>
-      <c r="H35">
-        <v>0.716467</v>
-      </c>
-      <c r="I35">
-        <v>0.006115290649808025</v>
-      </c>
-      <c r="J35">
-        <v>0.006115290649808025</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>115.8358916666667</v>
-      </c>
-      <c r="N35">
-        <v>347.507675</v>
-      </c>
-      <c r="O35">
-        <v>0.2055190467427377</v>
-      </c>
-      <c r="P35">
-        <v>0.2055190467427377</v>
-      </c>
-      <c r="Q35">
-        <v>27.66419793158056</v>
-      </c>
-      <c r="R35">
-        <v>248.977781384225</v>
-      </c>
-      <c r="S35">
-        <v>0.001256808704903322</v>
-      </c>
-      <c r="T35">
-        <v>0.001256808704903322</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.2388223333333333</v>
-      </c>
-      <c r="H36">
-        <v>0.716467</v>
-      </c>
-      <c r="I36">
-        <v>0.006115290649808025</v>
-      </c>
-      <c r="J36">
-        <v>0.006115290649808025</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>58.18688599999999</v>
-      </c>
-      <c r="N36">
-        <v>174.560658</v>
-      </c>
-      <c r="O36">
-        <v>0.10323668399826</v>
-      </c>
-      <c r="P36">
-        <v>0.10323668399826</v>
-      </c>
-      <c r="Q36">
-        <v>13.89632788392067</v>
-      </c>
-      <c r="R36">
-        <v>125.066950955286</v>
-      </c>
-      <c r="S36">
-        <v>0.0006313223283717453</v>
-      </c>
-      <c r="T36">
-        <v>0.0006313223283717454</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.2388223333333333</v>
-      </c>
-      <c r="H37">
-        <v>0.716467</v>
-      </c>
-      <c r="I37">
-        <v>0.006115290649808025</v>
-      </c>
-      <c r="J37">
-        <v>0.006115290649808025</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>76.38610333333334</v>
-      </c>
-      <c r="N37">
-        <v>229.15831</v>
-      </c>
-      <c r="O37">
-        <v>0.1355262079445491</v>
-      </c>
-      <c r="P37">
-        <v>0.1355262079445491</v>
-      </c>
-      <c r="Q37">
-        <v>18.24270743230778</v>
-      </c>
-      <c r="R37">
-        <v>164.18436689077</v>
-      </c>
-      <c r="S37">
-        <v>0.0008287821522472389</v>
-      </c>
-      <c r="T37">
-        <v>0.0008287821522472391</v>
+        <v>0.0057804342475158</v>
       </c>
     </row>
   </sheetData>
